--- a/spec/files/0_1_10_template_input.xlsx
+++ b/spec/files/0_1_10_template_input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="5600" windowWidth="20000" windowHeight="10460" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="51200" windowHeight="28260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="526">
   <si>
     <t>type</t>
   </si>
@@ -1518,12 +1518,6 @@
     <t>(double)</t>
   </si>
   <si>
-    <t>Allow Multiple Jobs</t>
-  </si>
-  <si>
-    <t>Use Server As Worker</t>
-  </si>
-  <si>
     <t>Simulate Data Point Filename</t>
   </si>
   <si>
@@ -1567,9 +1561,6 @@
   </si>
   <si>
     <t>LHS Example Project</t>
-  </si>
-  <si>
-    <t>Disable this is the analysis is large</t>
   </si>
   <si>
     <t>Display name of the analysis</t>
@@ -3080,7 +3071,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3143,22 +3134,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1333">
@@ -4827,11 +4815,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
@@ -4866,7 +4852,7 @@
         <v>453</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>454</v>
@@ -4885,24 +4871,24 @@
     </row>
     <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>509</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="56">
       <c r="A6" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4970,10 +4956,10 @@
         <v>46</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4981,7 +4967,7 @@
         <v>30</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4989,15 +4975,15 @@
         <v>31</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B15" s="25" t="b">
-        <v>1</v>
+      <c r="B15" s="25" t="s">
+        <v>497</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>454</v>
@@ -5005,166 +4991,144 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B16" s="28" t="b">
-        <v>1</v>
+        <v>498</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>499</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>499</v>
-      </c>
-      <c r="E17" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="56">
-      <c r="A20" s="12" t="s">
+    <row r="17" spans="1:5" s="2" customFormat="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" ht="56">
+      <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="14" t="s">
+      <c r="B18" s="26"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="14" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B19" s="25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="56">
-      <c r="A23" s="12" t="s">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="56">
+      <c r="A21" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="14" t="s">
+      <c r="B21" s="26"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="25">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B24" s="25">
         <v>20</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A28" s="12" t="s">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A26" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B26" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1" t="s">
+      <c r="D26" s="12"/>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="28">
-      <c r="A31" s="12" t="s">
+      <c r="B27" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" ht="28">
+      <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B29" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E29" s="14" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28">
-      <c r="A32" s="1" t="s">
+    <row r="30" spans="1:5" ht="28">
+      <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B30" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="24" t="s">
-        <v>519</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D30" s="24" t="s">
+        <v>516</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" ht="42">
-      <c r="A34" s="12" t="s">
+    <row r="32" spans="1:5" s="2" customFormat="1" ht="42">
+      <c r="A32" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B32" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C32" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="14"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5182,7 +5146,7 @@
           <x14:formula1>
             <xm:f>Lookups!$A$8:$A$9</xm:f>
           </x14:formula1>
-          <xm:sqref>B24</xm:sqref>
+          <xm:sqref>B22</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5235,27 +5199,27 @@
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31" t="s">
-        <v>523</v>
-      </c>
-      <c r="O1" s="32"/>
+      <c r="J1" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30" t="s">
+        <v>520</v>
+      </c>
+      <c r="O1" s="31"/>
       <c r="P1" s="6"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
     </row>
     <row r="2" spans="1:24" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
@@ -5311,10 +5275,10 @@
         <v>9</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>8</v>
@@ -6109,7 +6073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
@@ -6132,7 +6096,7 @@
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -6142,56 +6106,56 @@
       <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>492</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="F2" s="34" t="s">
-        <v>526</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>527</v>
+      <c r="F2" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>524</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" s="16" customFormat="1" ht="30">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
         <v>494</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="33" t="s">
         <v>495</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="35" t="s">
-        <v>528</v>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33" t="s">
+        <v>525</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C4" t="s">
         <v>503</v>
-      </c>
-      <c r="B4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" t="s">
-        <v>505</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -6205,13 +6169,13 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
